--- a/data/trans_dic/P25A_5_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25A_5_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por asma</t>
+          <t>Población con limitación por asma (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,42 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M3</t>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -637,42 +662,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,36%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,23%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,54</t>
+          <t>0,0; 4,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,02</t>
+          <t>0,79; 6,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,71</t>
+          <t>0,54; 7,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,09</t>
+          <t>0,0; 2,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,7</t>
+          <t>1,35; 8,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,39</t>
+          <t>0,84; 6,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,83</t>
+          <t>0,72; 5,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,37</t>
+          <t>0,0; 1,31</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 4,63</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,09; 4,74</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 4,83</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,22%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4,78%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,01</t>
+          <t>0,0; 5,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 8,42</t>
+          <t>0,0; 4,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,33</t>
+          <t>1,67; 14,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 6,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 10,97</t>
+          <t>0,54; 8,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 6,38</t>
+          <t>0,0; 9,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,6</t>
+          <t>1,0; 9,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 7,39</t>
+          <t>2,78; 27,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,95</t>
+          <t>0,69; 5,35</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 4,65</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2,06; 8,53</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 13,52</t>
         </is>
       </c>
     </row>
@@ -852,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -867,12 +952,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -882,17 +967,32 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,0</t>
+          <t>0,0; 22,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,66</t>
+          <t>0,0; 18,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,55</t>
+          <t>0,0; 19,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,76</t>
+          <t>0,0; 11,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,48</t>
+          <t>0,0; 18,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>1,29; 14,02</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,64</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 14,33</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3,61%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,27</t>
+          <t>0,33; 3,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,83</t>
+          <t>0,3; 2,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,9</t>
+          <t>1,52; 7,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,45</t>
+          <t>0,59; 4,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,11</t>
+          <t>0,76; 4,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,29</t>
+          <t>1,12; 5,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,5</t>
+          <t>1,42; 5,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,06</t>
+          <t>2,47; 15,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,14</t>
+          <t>0,74; 3,03</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 3,18</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 5,49</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1,93; 7,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por asma (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8997</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12175</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2150</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>13508</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9590</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11884</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2150</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>17868</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18587</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>24059</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15721</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3019; 24009</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2781; 40003</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12887</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5686; 34682</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3416; 27803</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4050; 28174</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12299</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7693; 36482</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8586; 37403</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11015; 52177</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6528</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4140</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15820</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11556</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7306</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11914</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>40382</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18084</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>11445</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>27734</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>40382</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 20390</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14730</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5377; 46388</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2298; 35748</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 30510</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3350; 32653</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12025; 119398</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5447; 41966</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3486; 30550</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13575; 56100</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11794; 114323</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3845</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6426</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6075</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6876</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9920</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13302</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 23013</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21947</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18785</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9633</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 20889</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2594; 28121</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14533</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3193; 33076</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10373</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8499</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>24817</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>18601</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19780</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>20814</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>23809</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>59142</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>30154</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>29313</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>48627</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>77743</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2971; 31169</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2271; 19418</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11985; 55955</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6171; 47435</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7862; 47462</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9397; 43378</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>11713; 47253</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>27383; 171328</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>14276; 58377</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>14636; 51061</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>28643; 88613</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>41549; 160613</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
